--- a/Realme/DECEMBER/All Details/04.12.2021/realme Bank Statement November 2021.xlsx
+++ b/Realme/DECEMBER/All Details/04.12.2021/realme Bank Statement November 2021.xlsx
@@ -2438,6 +2438,12 @@
     <xf numFmtId="1" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2450,6 +2456,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2489,12 +2501,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2592,12 +2598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3137,21 +3137,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="256" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -3958,67 +3958,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
     </row>
     <row r="2" spans="1:24" s="105" customFormat="1" ht="18">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="264" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
     </row>
     <row r="3" spans="1:24" s="106" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="265" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="263"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="266"/>
+      <c r="O3" s="266"/>
+      <c r="P3" s="266"/>
+      <c r="Q3" s="267"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4027,52 +4027,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="108" customFormat="1">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="266" t="s">
+      <c r="B4" s="270" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="255" t="s">
+      <c r="D4" s="257" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="255" t="s">
+      <c r="E4" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="255" t="s">
+      <c r="F4" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="255" t="s">
+      <c r="G4" s="257" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="255" t="s">
+      <c r="H4" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="255" t="s">
+      <c r="I4" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="255" t="s">
+      <c r="J4" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="255" t="s">
+      <c r="K4" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="255" t="s">
+      <c r="L4" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="257" t="s">
+      <c r="N4" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="270" t="s">
+      <c r="O4" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="268" t="s">
+      <c r="P4" s="272" t="s">
         <v>37</v>
       </c>
       <c r="Q4" s="107" t="s">
@@ -4085,22 +4085,22 @@
       <c r="W4" s="110"/>
     </row>
     <row r="5" spans="1:24" s="108" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="265"/>
-      <c r="B5" s="267"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="256"/>
-      <c r="L5" s="256"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="271"/>
-      <c r="P5" s="269"/>
+      <c r="A5" s="269"/>
+      <c r="B5" s="271"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="273"/>
       <c r="Q5" s="112" t="s">
         <v>38</v>
       </c>
@@ -7020,12 +7020,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7039,6 +7033,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7077,14 +7077,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="278"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
       <c r="L1" s="39"/>
       <c r="M1" s="160"/>
       <c r="N1" s="160"/>
@@ -7137,14 +7137,14 @@
       <c r="BI1" s="160"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="281" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
       <c r="L2" s="39"/>
       <c r="M2" s="160"/>
       <c r="N2" s="160"/>
@@ -7197,14 +7197,14 @@
       <c r="BI2" s="160"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
       <c r="K3" s="160"/>
       <c r="L3" s="39"/>
       <c r="M3" s="160"/>
@@ -9380,12 +9380,12 @@
       <c r="BI34" s="160"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="281" t="s">
+      <c r="A35" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="282"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="283"/>
+      <c r="B35" s="284"/>
+      <c r="C35" s="284"/>
+      <c r="D35" s="285"/>
       <c r="E35" s="49"/>
       <c r="F35" s="44"/>
       <c r="G35" s="61"/>
@@ -9445,12 +9445,12 @@
       <c r="BI35" s="160"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="284" t="s">
+      <c r="A36" s="286" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="285"/>
-      <c r="C36" s="285"/>
-      <c r="D36" s="286"/>
+      <c r="B36" s="287"/>
+      <c r="C36" s="287"/>
+      <c r="D36" s="288"/>
       <c r="E36" s="217">
         <f>F33-C113+K116</f>
         <v>0</v>
@@ -9915,15 +9915,15 @@
       <c r="C43" s="200"/>
       <c r="D43" s="231"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="287" t="s">
+      <c r="F43" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="288"/>
-      <c r="H43" s="288"/>
-      <c r="I43" s="288"/>
-      <c r="J43" s="288"/>
-      <c r="K43" s="288"/>
-      <c r="L43" s="289"/>
+      <c r="G43" s="290"/>
+      <c r="H43" s="290"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="290"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="291"/>
       <c r="M43" s="160"/>
       <c r="N43" s="160"/>
       <c r="O43" s="160"/>
@@ -11159,10 +11159,10 @@
       <c r="C62" s="198"/>
       <c r="D62" s="82"/>
       <c r="E62" s="54"/>
-      <c r="F62" s="272" t="s">
+      <c r="F62" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="272"/>
+      <c r="G62" s="274"/>
       <c r="H62" s="159"/>
       <c r="I62" s="159"/>
       <c r="J62" s="83" t="s">
@@ -14350,10 +14350,10 @@
       <c r="BI112" s="160"/>
     </row>
     <row r="113" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A113" s="273" t="s">
+      <c r="A113" s="275" t="s">
         <v>24</v>
       </c>
-      <c r="B113" s="274"/>
+      <c r="B113" s="276"/>
       <c r="C113" s="211">
         <f>SUM(C37:C112)</f>
         <v>335800</v>
@@ -14479,10 +14479,10 @@
       <c r="BI114" s="160"/>
     </row>
     <row r="115" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A115" s="275" t="s">
+      <c r="A115" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="276"/>
+      <c r="B115" s="278"/>
       <c r="C115" s="209">
         <f>C113+L116</f>
         <v>335800</v>
@@ -15123,8 +15123,8 @@
       <c r="N149" s="163"/>
     </row>
     <row r="150" spans="5:14">
-      <c r="F150" s="277"/>
-      <c r="G150" s="277"/>
+      <c r="F150" s="279"/>
+      <c r="G150" s="279"/>
       <c r="H150" s="160"/>
       <c r="I150" s="52"/>
       <c r="J150" s="39"/>
@@ -15783,8 +15783,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15804,35 +15804,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="292" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="292"/>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="294"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="301"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="303"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="295" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="295"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="297"/>
       <c r="F3" s="1"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -15859,13 +15859,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="302" t="s">
+      <c r="A4" s="304" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="304"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="306"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
@@ -16215,10 +16215,10 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="305" t="s">
+      <c r="A14" s="253" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="306">
+      <c r="B14" s="254">
         <v>400000</v>
       </c>
       <c r="C14" s="33"/>
@@ -16358,13 +16358,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="23.25" thickBot="1">
-      <c r="A18" s="296" t="s">
+      <c r="A18" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="297"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="297"/>
-      <c r="E18" s="298"/>
+      <c r="B18" s="299"/>
+      <c r="C18" s="299"/>
+      <c r="D18" s="299"/>
+      <c r="E18" s="300"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8"/>
       <c r="H18" s="173"/>
